--- a/TestData/TestDataFile.xlsx
+++ b/TestData/TestDataFile.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\senzo\Music\AbsaTechAssessment\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B58978-4B25-4CDB-B996-BADB7183DF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B715FBEB-B7A3-4521-BD4A-EEFEE7E8CE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Email</t>
   </si>
@@ -94,6 +103,24 @@
   </si>
   <si>
     <t>083444</t>
+  </si>
+  <si>
+    <t>LName3</t>
+  </si>
+  <si>
+    <t>User3</t>
+  </si>
+  <si>
+    <t>Pass3</t>
+  </si>
+  <si>
+    <t>Sales Team</t>
+  </si>
+  <si>
+    <t>sales@test.com</t>
+  </si>
+  <si>
+    <t>083222</t>
   </si>
 </sst>
 </file>
@@ -436,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +476,7 @@
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
@@ -532,13 +559,41 @@
         <v>22</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f ca="1">CHAR(INT(RAND()* 25 + 65)) &amp; CHAR(INT(RAND()* 25 + 65)) &amp; CHAR(INT(RAND()* 25 + 65)) &amp; CHAR(INT(RAND()* 25 + 65)) &amp; CHAR(INT(RAND()* 25 + 65)) &amp; CHAR(INT(RAND()* 25 + 65))</f>
+        <v>IWOCYD</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{DE2DF9E6-C4DF-493C-A8D5-3DBA812C4CCD}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{E0FC7953-C844-4400-8D7C-9A7C07E746A7}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{76582172-C62C-4DFA-B91E-6AA7ABF45E59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>